--- a/loaded_influencer_data/smafphh.ugc/smafphh.ugc_video.xlsx
+++ b/loaded_influencer_data/smafphh.ugc/smafphh.ugc_video.xlsx
@@ -506,19 +506,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@smafphh.ugc/video/7470141292899585298</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C2" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -532,19 +532,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>33.33333333333333</v>
+        <v>32.91666666666666</v>
       </c>
       <c r="I2" t="n">
-        <v>22.36286919831224</v>
+        <v>22.5</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>10.9704641350211</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="L2" t="n">
-        <v>5.063291139240507</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -556,16 +556,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@smafphh.ugc/video/7470016572053064978</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" t="n">
         <v>18</v>
@@ -578,23 +578,23 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>리퀴드 립스틱과 립글로스 콤보. Btw 1k 팔로워 감사합니다🎉🥹 무엇보다 신께 감사합니다. @PINKFLASH.PH #ugc</t>
+          <t>오래 지속되는 액체 립스틱 by @PINKFLASH.PH #liquidlipstick #longlasting #pinkflash #lipstick #ugcexample #ugc</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>24.5136186770428</v>
+        <v>24.61538461538462</v>
       </c>
       <c r="I3" t="n">
-        <v>17.50972762645914</v>
+        <v>17.69230769230769</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>7.003891050583658</v>
+        <v>6.923076923076923</v>
       </c>
       <c r="L3" t="n">
-        <v>3.501945525291829</v>
+        <v>3.461538461538462</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -606,16 +606,16 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@smafphh.ugc/video/7466432028204928264</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C4" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D4" t="n">
         <v>31</v>
@@ -632,19 +632,19 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>31.84210526315789</v>
+        <v>31.52454780361757</v>
       </c>
       <c r="I4" t="n">
-        <v>23.68421052631579</v>
+        <v>23.51421188630491</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>8.157894736842106</v>
+        <v>8.010335917312661</v>
       </c>
       <c r="L4" t="n">
-        <v>2.894736842105263</v>
+        <v>2.842377260981912</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -656,16 +656,16 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@smafphh.ugc/photo/7466069607510527250</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C5" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5" t="n">
         <v>32</v>
@@ -682,19 +682,19 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>40.625</v>
+        <v>41.08527131782946</v>
       </c>
       <c r="I5" t="n">
-        <v>28.125</v>
+        <v>28.68217054263566</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>12.5</v>
+        <v>12.4031007751938</v>
       </c>
       <c r="L5" t="n">
-        <v>3.90625</v>
+        <v>3.875968992248062</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@smafphh.ugc/video/7465689258368503047</t>
         </is>
@@ -756,13 +756,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@smafphh.ugc/video/7465211404895685896</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2781</v>
+        <v>2785</v>
       </c>
       <c r="C7" t="n">
         <v>65</v>
@@ -778,23 +778,23 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>high coverage lightweight foundation from @pinkflash.ph #ugcexample #foundation #coveragefoundation #creatorsearchinsights</t>
+          <t>높은 커버리지 경량 파운데이션@pinkflash.ph #ugcexample #foundation #coveragefoundation</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3.092412801150665</v>
+        <v>3.087971274685817</v>
       </c>
       <c r="I7" t="n">
-        <v>2.337288745055735</v>
+        <v>2.333931777378815</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7551240560949299</v>
+        <v>0.7540394973070017</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2876663070837828</v>
+        <v>0.2872531418312388</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -806,152 +806,152 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@smafphh.ugc/video/7464583210903604498</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="C8" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>높은 커버리지 경량 파운데이션@pinkflash.ph #ugcexample #foundation #coveragefoundation</t>
+          <t>UGC 예제 비디오</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>17.30382293762575</v>
+        <v>17.82178217821782</v>
       </c>
       <c r="I8" t="n">
-        <v>13.0784708249497</v>
+        <v>13.46534653465347</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>4.225352112676056</v>
+        <v>4.356435643564356</v>
       </c>
       <c r="L8" t="n">
-        <v>1.609657947686117</v>
+        <v>2.97029702970297</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-27</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@smafphh.ugc/photo/7463353417612758279</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C9" t="n">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D9" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>UGC 예제 비디오</t>
+          <t>화이트 헤드, 블랙 헤드 및 기타 불순물로 인해 특히 코 주변의 질감 피부에 어려움을 겪고 있습니까? 글쎄, 센텔라 클렌징 오일이 당신을 도울 수 있습니다. 센텔라 클렌징 오일은 모공을 깊게 클렌징하고 과도한 오일, 먼지 및 각질을 녹여 시간이 지남에 따라 화이트 헤드와 블랙 헤드를 제거하는 데 도움 🧼제품 혜택: A. 화이트헤드 &amp; 블랙헤드 1. 오일 해산 - 클렌징 오일은 블랙헤드와 화이트헤드 형성의 핵심 요소인 과도한 피지를 분해합니다. 2. 부드러운 각질 제거 - 일부 제형에는 각질을 제거하는 데 도움이 되는 순한 각질 제거 성분이 포함되어 있습니다. 3. 막힌 모공 예방 - 규칙적인 사용으로 모공을 깨끗하게 유지하여 향후 발생을 줄입니다. 4. 진정 염증 - 센텔라 아시아티카는 피부를 진정시켜 발작을 일으킬 수 있는 자극을 줄여줍니다. B. 센텔라 클렌징 오일은 부드럽지만 효과적인 메이크업 리무버 및 페이셜 클렌저로 피부에 다양한 이점을 제공합니다. 딥 클렌징 - 피부를 벗기지 않고 메이크업, 자외선 차단제 및 과도한 피지를 제거합니다. 진정 및 진정 - 센텔라 아시아티카는 항염증 특성으로 알려져 있어 홍조와 자극을 줄이는 데 도움이 됩니다. 수분 공급 및 영양 공급 - 피부를 부드럽고 촉촉하게 유지하는 필수 지방산과 항산화제가 함유되어 있습니다. 밸런스 오일 생산 - 모공을 막지 않고 클렌징하여 지성 및 여드름이 발생하기 쉬운 피부에 이상적입니다. 피부 장벽 강화 - 센텔라 및 식물성 오일은 피부의 자연 장벽을 강화하는 데 도움이 됩니다. 🌱천연 성분: 센텔라 아시아티카 추출물 - 염증을 진정시키고 치유하며 감소시킵니다. 조호바 오일 - 피지 생산에 수분을 공급하고 균형을 유지합니다. 해바라기씨 오일 - 항산화제가 풍부하고 피부를 보호하고 영양을 공급합니다. 올리브 오일 - 깊은 수분을 공급하고 불순물을 제거합니다.</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>25.42372881355932</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>19.2090395480226</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6.214689265536723</v>
+        <v>3.611111111111111</v>
       </c>
       <c r="L9" t="n">
-        <v>4.23728813559322</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-24</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@smafphh.ugc/video/7463099940667919623</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C10" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>화이트 헤드, 블랙 헤드 및 기타 불순물로 인해 특히 코 주변의 질감 피부에 어려움을 겪고 있습니까? 글쎄, 센텔라 클렌징 오일이 당신을 도울 수 있습니다. 센텔라 클렌징 오일은 모공을 깊게 클렌징하고 과도한 오일, 먼지 및 각질을 녹여 시간이 지남에 따라 화이트 헤드와 블랙 헤드를 제거하는 데 도움 🧼제품 혜택: A. 화이트헤드 &amp; 블랙헤드 1. 오일 해산 - 클렌징 오일은 블랙헤드와 화이트헤드 형성의 핵심 요소인 과도한 피지를 분해합니다. 2. 부드러운 각질 제거 - 일부 제형에는 각질을 제거하는 데 도움이 되는 순한 각질 제거 성분이 포함되어 있습니다. 3. 막힌 모공 예방 - 규칙적인 사용으로 모공을 깨끗하게 유지하여 향후 발생을 줄입니다. 4. 진정 염증 - 센텔라 아시아티카는 피부를 진정시켜 발작을 일으킬 수 있는 자극을 줄여줍니다. B. 센텔라 클렌징 오일은 부드럽지만 효과적인 메이크업 리무버 및 페이셜 클렌저로 피부에 다양한 이점을 제공합니다. 딥 클렌징 - 피부를 벗기지 않고 메이크업, 자외선 차단제 및 과도한 피지를 제거합니다. 진정 및 진정 - 센텔라 아시아티카는 항염증 특성으로 알려져 있어 홍조와 자극을 줄이는 데 도움이 됩니다. 수분 공급 및 영양 공급 - 피부를 부드럽고 촉촉하게 유지하는 필수 지방산과 항산화제가 함유되어 있습니다. 밸런스 오일 생산 - 모공을 막지 않고 클렌징하여 지성 및 여드름이 발생하기 쉬운 피부에 이상적입니다. 피부 장벽 강화 - 센텔라 및 식물성 오일은 피부의 자연 장벽을 강화하는 데 도움이 됩니다. 🌱천연 성분: 센텔라 아시아티카 추출물 - 염증을 진정시키고 치유하며 감소시킵니다. 조호바 오일 - 피지 생산에 수분을 공급하고 균형을 유지합니다. 해바라기씨 오일 - 항산화제가 풍부하고 피부를 보호하고 영양을 공급합니다. 올리브 오일 - 깊은 수분을 공급하고 불순물을 제거합니다.</t>
+          <t>센텔라 클렌징 오일 이점 해산 - 클렌징 오일은 블랙헤드와 화이트헤드 형성의 핵심 요소인 과도한 피지를 분해합니다. 부드러운 각질 제거 - 일부 제형에는 각질을 제거하는 데 도움이 되는 순한 각질 제거 성분이 포함되어 있습니다. 막힌 모공 예방 - 규칙적인 사용으로 모공을 깨끗하게 유지하여 향후 발생을 줄입니다. 진정 염증 - 센텔라 아시아티카는 피부를 진정시켜 발작을 일으킬 수 있는 자극을 줄여줍니다.</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>23.1404958677686</v>
+        <v>24.2798353909465</v>
       </c>
       <c r="I10" t="n">
-        <v>17.76859504132231</v>
+        <v>17.28395061728395</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>5.371900826446281</v>
+        <v>6.995884773662551</v>
       </c>
       <c r="L10" t="n">
-        <v>2.479338842975207</v>
+        <v>3.292181069958848</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-01-23</t>
         </is>
       </c>
     </row>
